--- a/diccionario-variables-microdatos-manzana.xlsx
+++ b/diccionario-variables-microdatos-manzana.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dbarrientos\Desktop\GEODATOS_ABIERTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgcal\Documents\GitHub\avu_valdivia\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF81A96-88B6-48FE-B044-0C13EF7DA4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="9930"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -365,7 +366,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -383,7 +384,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,8 +397,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -420,17 +457,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,20 +886,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="135.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -731,7 +907,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -739,7 +915,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -747,7 +923,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -755,7 +931,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -763,7 +939,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -771,7 +947,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -779,7 +955,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -787,7 +963,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -795,7 +971,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -803,7 +979,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -811,7 +987,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -819,7 +995,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -827,7 +1003,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -835,7 +1011,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -843,7 +1019,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -851,7 +1027,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -859,7 +1035,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -867,7 +1043,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -875,7 +1051,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -883,7 +1059,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -891,7 +1067,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -899,23 +1075,23 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -923,7 +1099,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -931,7 +1107,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -939,7 +1115,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -947,7 +1123,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -955,7 +1131,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -963,211 +1139,211 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="19" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="19" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="19" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="21" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="23" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="25" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="25" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="29" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="31" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="33" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="35" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="37" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="37" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="39" t="s">
         <v>102</v>
       </c>
     </row>
